--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -105,8 +105,8 @@
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -603,7 +603,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -611,11 +611,11 @@
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1">
         <f ca="1">RAND()</f>
-        <v>0.62179507637691722</v>
+        <v>0.82080125510188151</v>
       </c>
       <c r="B1">
         <f ca="1">_xll.MONTE.MEAN(A1)</f>
-        <v>0.49208874014486981</v>
+        <v>0.56564359622701665</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -625,11 +625,11 @@
       </c>
       <c r="B2">
         <f t="array" aca="1" ref="B2:C2" ca="1">_xll.MONTE.MEAN(A1,A2)</f>
-        <v>0</v>
+        <v>0.82080125510188151</v>
       </c>
       <c r="C2">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
